--- a/modelos_CNN_1D/modelo1/resultados_iteraciones/resultados.xlsx
+++ b/modelos_CNN_1D/modelo1/resultados_iteraciones/resultados.xlsx
@@ -1,109 +1,43 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27628"/>
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mmmm\Documents\MEGA\MEGAsync\Mestria\proyecto_grado\modelos_ANN\modelo1\resultados_iteraciones\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{79C32C9E-C9AF-4B4A-94B0-A13F682662F5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <workbookProtection/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-240" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Resultados" sheetId="1" r:id="rId1"/>
+    <sheet name="Resultados" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
-  <extLst>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
-  </extLst>
+  <definedNames/>
+  <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="4">
-  <si>
-    <t>Loss</t>
-  </si>
-  <si>
-    <t>Accuracy</t>
-  </si>
-  <si>
-    <t>Promedio</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Desv </t>
-  </si>
-</sst>
-</file>
-
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="1">
-    <numFmt numFmtId="168" formatCode="0.0000"/>
-  </numFmts>
-  <fonts count="4" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="0"/>
+  <fonts count="2">
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <color theme="1"/>
+      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
+      <b val="1"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="2">
     <fill>
-      <patternFill patternType="none"/>
+      <patternFill/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="3" tint="-0.499984740745262"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="-0.499984740745262"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="8">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -112,145 +46,93 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
     </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+  <cellXfs count="2">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="168" fontId="3" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="168" fontId="3" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="168" fontId="3" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -538,110 +420,192 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:I6"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:B21"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K9" sqref="K9"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="5" max="5" width="9.7109375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="6.5703125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="9.7109375" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="6.5703125" bestFit="1" customWidth="1"/>
-  </cols>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A2" s="2">
-        <v>0.32248187065124512</v>
-      </c>
-      <c r="B2" s="2">
-        <v>0.89749997854232788</v>
-      </c>
-      <c r="E2" s="7" t="s">
-        <v>1</v>
-      </c>
-      <c r="F2" s="8"/>
-      <c r="H2" s="6" t="s">
-        <v>0</v>
-      </c>
-      <c r="I2" s="6"/>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A3" s="2">
-        <v>0.27943557500839228</v>
-      </c>
-      <c r="B3" s="2">
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Loss</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>Accuracy</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="n">
+        <v>0.3224818706512451</v>
+      </c>
+      <c r="B2" t="n">
+        <v>0.8974999785423279</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="n">
+        <v>0.2794355750083923</v>
+      </c>
+      <c r="B3" t="n">
         <v>0.9024999737739563</v>
       </c>
-      <c r="E3" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="F3" s="9">
-        <f>AVERAGE(B2:B6)</f>
-        <v>0.90124999284744267</v>
-      </c>
-      <c r="H3" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="I3" s="11">
-        <f>AVERAGE(A2:A6)</f>
-        <v>0.32442528009414673</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="2">
-        <v>0.30233824253082281</v>
-      </c>
-      <c r="B4" s="2">
-        <v>0.90750002861022949</v>
-      </c>
-      <c r="E4" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="F4" s="10">
-        <f>_xlfn.STDEV.P(B2:B6)</f>
-        <v>5.0000011921461866E-3</v>
-      </c>
-      <c r="H4" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="I4" s="11">
-        <f>_xlfn.STDEV.P(A2:A6)</f>
-        <v>3.6454958995423746E-2</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A5" s="2">
-        <v>0.38849243521690369</v>
-      </c>
-      <c r="B5" s="2">
-        <v>0.89375001192092896</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A6" s="2">
-        <v>0.32937827706336981</v>
-      </c>
-      <c r="B6" s="2">
-        <v>0.90499997138977051</v>
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>0.3023382425308228</v>
+      </c>
+      <c r="B4" t="n">
+        <v>0.9075000286102295</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>0.3884924352169037</v>
+      </c>
+      <c r="B5" t="n">
+        <v>0.893750011920929</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="n">
+        <v>0.3293782770633698</v>
+      </c>
+      <c r="B6" t="n">
+        <v>0.9049999713897705</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="n">
+        <v>0.3179498910903931</v>
+      </c>
+      <c r="B7" t="n">
+        <v>0.9012500047683716</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="n">
+        <v>0.3094978034496307</v>
+      </c>
+      <c r="B8" t="n">
+        <v>0.9100000262260437</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="n">
+        <v>0.3418513536453247</v>
+      </c>
+      <c r="B9" t="n">
+        <v>0.9087499976158142</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="n">
+        <v>0.3615813553333282</v>
+      </c>
+      <c r="B10" t="n">
+        <v>0.8962500095367432</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="n">
+        <v>0.3490592241287231</v>
+      </c>
+      <c r="B11" t="n">
+        <v>0.8899999856948853</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="n">
+        <v>0.3704244494438171</v>
+      </c>
+      <c r="B12" t="n">
+        <v>0.887499988079071</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="n">
+        <v>0.2965623438358307</v>
+      </c>
+      <c r="B13" t="n">
+        <v>0.9237499833106995</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="n">
+        <v>0.3143299221992493</v>
+      </c>
+      <c r="B14" t="n">
+        <v>0.90625</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="n">
+        <v>0.3143299221992493</v>
+      </c>
+      <c r="B15" t="n">
+        <v>0.90625</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="n">
+        <v>0.3143299221992493</v>
+      </c>
+      <c r="B16" t="n">
+        <v>0.90625</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="n">
+        <v>0.3143299221992493</v>
+      </c>
+      <c r="B17" t="n">
+        <v>0.90625</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="n">
+        <v>0.3645941019058228</v>
+      </c>
+      <c r="B18" t="n">
+        <v>0.8712499737739563</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="n">
+        <v>0.3370372653007507</v>
+      </c>
+      <c r="B19" t="n">
+        <v>0.90625</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="n">
+        <v>0.348226934671402</v>
+      </c>
+      <c r="B20" t="n">
+        <v>0.8987500071525574</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="n">
+        <v>0.347154438495636</v>
+      </c>
+      <c r="B21" t="n">
+        <v>0.8962500095367432</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="2">
-    <mergeCell ref="E2:F2"/>
-    <mergeCell ref="H2:I2"/>
-  </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
--- a/modelos_CNN_1D/modelo1/resultados_iteraciones/resultados.xlsx
+++ b/modelos_CNN_1D/modelo1/resultados_iteraciones/resultados.xlsx
@@ -1,37 +1,54 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27830"/>
   <workbookPr/>
-  <workbookProtection/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mmmm\Documents\MEGA\MEGAsync\Mestria\proyecto_grado\modelos_CNN_1D\modelo1\resultados_iteraciones\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{227C4657-859B-4B27-90E8-7F19E144E736}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView xWindow="11424" yWindow="0" windowWidth="11712" windowHeight="12336" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Resultados" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Resultados" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames/>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
+  <si>
+    <t>Loss</t>
+  </si>
+  <si>
+    <t>Accuracy</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <color theme="1"/>
-      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b val="1"/>
+      <b/>
+      <sz val="11"/>
+      <name val="Calibri"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill/>
+      <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -46,93 +63,43 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin"/>
-      <right style="thin"/>
-      <top style="thin"/>
-      <bottom style="thin"/>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <colors>
-    <indexedColors>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008000"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00808000"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="00C0C0C0"/>
-      <rgbColor rgb="00808080"/>
-      <rgbColor rgb="009999FF"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00FFFFCC"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00660066"/>
-      <rgbColor rgb="00FF8080"/>
-      <rgbColor rgb="000066CC"/>
-      <rgbColor rgb="00CCCCFF"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="0000CCFF"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00CCFFCC"/>
-      <rgbColor rgb="00FFFF99"/>
-      <rgbColor rgb="0099CCFF"/>
-      <rgbColor rgb="00FF99CC"/>
-      <rgbColor rgb="00CC99FF"/>
-      <rgbColor rgb="00FFCC99"/>
-      <rgbColor rgb="003366FF"/>
-      <rgbColor rgb="0033CCCC"/>
-      <rgbColor rgb="0099CC00"/>
-      <rgbColor rgb="00FFCC00"/>
-      <rgbColor rgb="00FF9900"/>
-      <rgbColor rgb="00FF6600"/>
-      <rgbColor rgb="00666699"/>
-      <rgbColor rgb="00969696"/>
-      <rgbColor rgb="00003366"/>
-      <rgbColor rgb="00339966"/>
-      <rgbColor rgb="00003300"/>
-      <rgbColor rgb="00333300"/>
-      <rgbColor rgb="00993300"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00333399"/>
-      <rgbColor rgb="00333333"/>
-    </indexedColors>
-  </colors>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -420,189 +387,61 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:B21"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:B6"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1">
-      <c r="A1" s="1" t="inlineStr">
-        <is>
-          <t>Loss</t>
-        </is>
-      </c>
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>Accuracy</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="n">
-        <v>0.3224818706512451</v>
-      </c>
-      <c r="B2" t="n">
-        <v>0.8974999785423279</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="n">
-        <v>0.2794355750083923</v>
-      </c>
-      <c r="B3" t="n">
-        <v>0.9024999737739563</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="n">
-        <v>0.3023382425308228</v>
-      </c>
-      <c r="B4" t="n">
-        <v>0.9075000286102295</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="n">
-        <v>0.3884924352169037</v>
-      </c>
-      <c r="B5" t="n">
-        <v>0.893750011920929</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="n">
-        <v>0.3293782770633698</v>
-      </c>
-      <c r="B6" t="n">
-        <v>0.9049999713897705</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="n">
-        <v>0.3179498910903931</v>
-      </c>
-      <c r="B7" t="n">
-        <v>0.9012500047683716</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="n">
-        <v>0.3094978034496307</v>
-      </c>
-      <c r="B8" t="n">
-        <v>0.9100000262260437</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="n">
-        <v>0.3418513536453247</v>
-      </c>
-      <c r="B9" t="n">
-        <v>0.9087499976158142</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="n">
-        <v>0.3615813553333282</v>
-      </c>
-      <c r="B10" t="n">
-        <v>0.8962500095367432</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="n">
-        <v>0.3490592241287231</v>
-      </c>
-      <c r="B11" t="n">
-        <v>0.8899999856948853</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="n">
-        <v>0.3704244494438171</v>
-      </c>
-      <c r="B12" t="n">
-        <v>0.887499988079071</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="n">
-        <v>0.2965623438358307</v>
-      </c>
-      <c r="B13" t="n">
-        <v>0.9237499833106995</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" t="n">
-        <v>0.3143299221992493</v>
-      </c>
-      <c r="B14" t="n">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A2">
+        <v>0.31432992219924932</v>
+      </c>
+      <c r="B2">
         <v>0.90625</v>
       </c>
     </row>
-    <row r="15">
-      <c r="A15" t="n">
-        <v>0.3143299221992493</v>
-      </c>
-      <c r="B15" t="n">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A3">
+        <v>0.36459410190582281</v>
+      </c>
+      <c r="B3">
+        <v>0.8712499737739563</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A4">
+        <v>0.33703726530075068</v>
+      </c>
+      <c r="B4">
         <v>0.90625</v>
       </c>
     </row>
-    <row r="16">
-      <c r="A16" t="n">
-        <v>0.3143299221992493</v>
-      </c>
-      <c r="B16" t="n">
-        <v>0.90625</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" t="n">
-        <v>0.3143299221992493</v>
-      </c>
-      <c r="B17" t="n">
-        <v>0.90625</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" t="n">
-        <v>0.3645941019058228</v>
-      </c>
-      <c r="B18" t="n">
-        <v>0.8712499737739563</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" t="n">
-        <v>0.3370372653007507</v>
-      </c>
-      <c r="B19" t="n">
-        <v>0.90625</v>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" t="n">
-        <v>0.348226934671402</v>
-      </c>
-      <c r="B20" t="n">
-        <v>0.8987500071525574</v>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" t="n">
-        <v>0.347154438495636</v>
-      </c>
-      <c r="B21" t="n">
-        <v>0.8962500095367432</v>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A5">
+        <v>0.34822693467140198</v>
+      </c>
+      <c r="B5">
+        <v>0.89875000715255737</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A6">
+        <v>0.34715443849563599</v>
+      </c>
+      <c r="B6">
+        <v>0.89625000953674316</v>
       </c>
     </row>
   </sheetData>
